--- a/CVX_Kenya/Optimization/ Ecopulpers_main.xlsx
+++ b/CVX_Kenya/Optimization/ Ecopulpers_main.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Intervention</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>kton/FU</t>
+  </si>
+  <si>
+    <t>kha/FU</t>
   </si>
   <si>
     <t>Scenario</t>
@@ -610,7 +613,7 @@
         <v>35</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>30</v>
@@ -628,7 +631,7 @@
         <v>35</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>30</v>
@@ -646,7 +649,7 @@
         <v>35</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>30</v>
@@ -660,7 +663,7 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1"/>
       <c r="H4">
@@ -679,10 +682,10 @@
         <v>3.753202228210284</v>
       </c>
       <c r="M4">
-        <v>0.0005755873753514607</v>
+        <v>0.0003929911999875912</v>
       </c>
       <c r="N4">
-        <v>0.5396746497135609</v>
+        <v>0.001701201336800295</v>
       </c>
       <c r="O4">
         <v>0.06658975593745708</v>
@@ -700,7 +703,7 @@
         <v>0.001979796430532588</v>
       </c>
       <c r="T4">
-        <v>0.001174013130366802</v>
+        <v>2.888019662350416e-05</v>
       </c>
       <c r="U4">
         <v>0.2802074924111366</v>
@@ -715,10 +718,10 @@
         <v>37.53627586291987</v>
       </c>
       <c r="Y4">
-        <v>0.007735670184047194</v>
+        <v>0.0059097084304085</v>
       </c>
       <c r="Z4">
-        <v>5.397920510265976</v>
+        <v>0.01704089356462646</v>
       </c>
       <c r="AA4">
         <v>0.9461050517857075</v>
